--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13520" windowHeight="7160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Query</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>HDFC</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Updated MenuName</t>
   </si>
 </sst>
 </file>
@@ -433,21 +439,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -458,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -471,12 +477,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -491,23 +497,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -523,8 +529,11 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -539,6 +548,9 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -556,15 +568,15 @@
       <selection activeCell="A2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -582,19 +594,19 @@
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
@@ -612,15 +624,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
@@ -637,19 +649,19 @@
       <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -668,16 +680,16 @@
       <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -688,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="E2" s="1"/>
     </row>
@@ -704,27 +716,27 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.7265625" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>

--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Query</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>Updated MenuName</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
   </si>
 </sst>
 </file>
@@ -429,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H2"/>
+    <sheetView topLeftCell="CDY1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,13 +577,37 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
@@ -10,14 +10,9 @@
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="CreateDepartment" sheetId="4" r:id="rId4"/>
-    <sheet name="EditDepartment" sheetId="5" r:id="rId5"/>
-    <sheet name="CreateGroup" sheetId="7" r:id="rId6"/>
-    <sheet name="EditGroup" sheetId="8" r:id="rId7"/>
-    <sheet name="Queries" sheetId="10" r:id="rId8"/>
+    <sheet name="Queries" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,40 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Query</t>
   </si>
   <si>
-    <t xml:space="preserve"> SELECT B.Name
-  ,A.Name AS 'Group Name'
-  ,C.Name AS 'Department Name'
-  ,B.Enabled
-  ,B.Text
-  ,B.LAST_CHANGED_BY as 'Last Changed By'
-  ,SubString(B.LAST_CHANGED_ON,11,19) as 'Last Changed On'
-  ,B.StartTime as 'Start Time'
-  ,B.EndTime as 'End Time'
-   FROM AGT_SMS_TEMPLATES B LEFT join AGT_SMS_Template_Groups A ON A.ID=B.GroupID
-   Left JOIN AGT_SMS_Template_Departments c ON c.ID = A.DepartmentID;</t>
-  </si>
-  <si>
-    <t>SELECT [Name]
-      ,[Enabled] 
-      ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [AGT_SMS_Template_Departments]</t>
-  </si>
-  <si>
-    <t>SELECT G.[Name]
-   ,D.[Name] as 'Department Name'
-      ,G.[Enabled]
-      ,G.[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring(G.[LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [AGT_SMS_Template_Groups] G left Join [AGT_SMS_Template_Departments] D
-   on G.DepartmentID=D.ID;</t>
-  </si>
-  <si>
     <t>Menu Id</t>
   </si>
   <si>
@@ -104,6 +70,14 @@
   </si>
   <si>
     <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>SELECT [MENU_ID] as 'Menu Id'
+      ,[MENU_NAME] as 'Menu Name'
+      ,[INTENT] as Intent
+   ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,[LAST_CHANGED_ON] as 'Last Changed On'
+  FROM [Chat_Menu_Desc]</t>
   </si>
 </sst>
 </file>
@@ -146,12 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,7 +414,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,36 +429,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -519,45 +489,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,9 +536,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="CDY1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -580,34 +550,34 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,137 +586,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -754,19 +602,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13760" windowHeight="2130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I5"/>
+  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,21 +414,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -452,12 +452,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -476,19 +476,19 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -539,19 +539,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -593,17 +593,17 @@
       <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>

--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,12 +58,6 @@
     <t>Modified</t>
   </si>
   <si>
-    <t>Buzz</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
     <t>Credit Card</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,[LAST_CHANGED_ON] as 'Last Changed On'
   FROM [Chat_Menu_Desc]</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Buzz</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,12 +454,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -590,7 +590,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C2:C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatMenuDescriptionData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E2B94-B3FB-4520-B61C-60213F90E1C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,6 @@
     <sheet name="Queries" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,24 +67,24 @@
     <t>Delete Reason</t>
   </si>
   <si>
-    <t>SELECT [MENU_ID] as 'Menu Id'
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [MENU_ID] as 'Menu Id'
       ,[MENU_NAME] as 'Menu Name'
       ,[INTENT] as Intent
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,[LAST_CHANGED_ON] as 'Last Changed On'
-  FROM [Chat_Menu_Desc]</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>Buzz</t>
+  FROM [Chat_Menu_Desc] Order By [MENU_NAME] Asc; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,31 +404,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -452,14 +452,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -469,26 +469,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -536,22 +536,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -586,26 +586,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
